--- a/Archivos Excel/songs.xlsx
+++ b/Archivos Excel/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337423D8-BAFE-4ACE-83C1-DFDC1CBDBB2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECD530-F776-4202-8CDA-7390951E7E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{067E2ABE-601A-40B7-B723-C4A6564EA429}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>'Giant Steps'</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>Pedimiento'</t>
+  </si>
+  <si>
+    <t>insert into song values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -562,19 +571,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43B6D83-BF0F-4BBB-A46C-2CC839BBA098}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +597,15 @@
         <v>29</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" t="str">
+        <f>CONCATENATE($K$1,A1,$K$3,B1,$K$3,C1,$K$2)</f>
+        <v>insert into song values('Giant Steps', '1960-01-27',283);</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -601,8 +617,15 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H55" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$3,C2,$K$2)</f>
+        <v>insert into song values('Cousin Mary', '1960-01-27',345);</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -614,8 +637,15 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Countdown','1960-01-27',141);</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -627,8 +657,12 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Spiral','1960-01-27',356);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,12 +674,12 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="H5" t="e">
-        <f>CONCA</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Syeeda´s Song Flute','1960-01-27',420);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -657,8 +691,12 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Naima','1960-01-27',261);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -670,12 +708,16 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Mr. P.C.','1960-01-27',417);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -687,8 +729,12 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Acknowledgment', '1964-12-09',463);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -700,8 +746,12 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Resolution', '1964-12-09',440);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -713,8 +763,12 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Pursuance', '1964-12-09',642);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -726,8 +780,12 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Psalm', '1964-12-09',425);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -741,8 +799,12 @@
         <v>30</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Airegin', '1960-01-28',266);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -754,8 +816,12 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('D-Natural Blues', '1960-01-28',323);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -767,8 +833,12 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Polka Dots and Moonbeams', '1960-01-28',284);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -780,8 +850,12 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Four on Six', '1960-01-28',375);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -793,8 +867,12 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('West Coast Blues', '1960-01-28',446);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -806,8 +884,12 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('In Your Own Sweet Way', '1960-01-28',293);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -819,8 +901,12 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Mr. Walker', '1960-01-28',273);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -832,8 +918,12 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Gone With the Wind', '1960-01-28',384);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -847,8 +937,12 @@
         <v>31</v>
       </c>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Marea', '1999-03-13',265);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -860,8 +954,12 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Ya lo dijo Camarón', '1999-03-13',204);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -873,8 +971,12 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Trasegando', '1999-03-13',167);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -886,8 +988,12 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('No quiero ser un poeta', '1999-03-13',213);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -899,8 +1005,12 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Despellejo', '1999-03-13',220);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -912,8 +1022,12 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Quejíos', '1999-03-13',282);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -925,8 +1039,12 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Lija y terciopelo', '1999-03-13',275);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -938,12 +1056,16 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values('Como quiere tu abuelita', '1999-03-13',307);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -955,8 +1077,12 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Barniz', '2000-02-06',234);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -968,8 +1094,12 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Incandescente', '2000-02-06',250);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -981,8 +1111,12 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Amor temporero', '2000-02-06',240);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -994,8 +1128,12 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Corazón de mimbre', '2000-02-06',337);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1007,8 +1145,12 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'El perro verde', '2000-02-06',242);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1020,8 +1162,12 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Duerme conmigo', '2000-02-06',220);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1033,8 +1179,12 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Canto de tierra seca I', '2000-02-06',72);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1046,8 +1196,12 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Canto de tierra seca II', '2000-02-06',206);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1059,8 +1213,12 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Prisma tristeza', '2000-02-06',221);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1072,8 +1230,12 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Mojama', '2000-02-06',235);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1085,12 +1247,16 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Si viene la pestañi', '2000-02-06',221);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1102,8 +1268,12 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Bienvenido al secadero', '2011-09-27',224);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1115,8 +1285,12 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(La majada', '2011-09-27',255);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1128,8 +1302,12 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Sobran bueyes', '2011-09-27',251);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -1141,8 +1319,12 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(El día que lluevan pianos', '2011-09-27',250);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1154,8 +1336,12 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Canaleros', '2011-09-27',311);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1167,8 +1353,12 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Ojalá me quieras libre', '2011-09-27',257);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -1180,8 +1370,12 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Ángeles del suelo', '2011-09-27',223);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -1193,8 +1387,12 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Las últimas habitaciones', '2011-09-27',220);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1206,8 +1404,12 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Plomo en los bolsillos', '2011-09-27',245);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -1219,6 +1421,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values(Pedimiento', '2011-09-27',260);</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Archivos Excel/songs.xlsx
+++ b/Archivos Excel/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECD530-F776-4202-8CDA-7390951E7E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC031AF8-D582-426C-AEBD-CDCBE849554E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{067E2ABE-601A-40B7-B723-C4A6564EA429}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="160">
   <si>
     <t>'Giant Steps'</t>
   </si>
@@ -213,6 +214,303 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1964-04-19'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Route 66'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I Just Want to Make Love to You'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Honest I Do'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mona (I Need You Baby)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Now I have Got a Witness (Like Uncle Phil and Uncle Gene)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Little by Little'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I am a King Bee'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Carol'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Tell Me (You are Coming Back)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Can I Get a Witness'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'You Can Make It If You Try'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Walking the Dog'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1964-10-17'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Around and Around'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Confessing the Blues'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Empty Heart'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Time Is on My Side'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Good Times, Bad Times'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'It is All Over Now'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2120 South Michigan Avenue'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Congratulations'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Grown Up Wrong'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'If You Need Me'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Susie Q'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Under the Boardwalk'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mother,s Little Helper'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Stupid Girl'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Lady Jane'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Under My Thumb'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Doncha Bother Me'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Going Home'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Flight 505'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'High and Dry'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Out of Time'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'It is Not Easy'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I Am Waiting'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Take It or Leave It'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Think'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'What to Do'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1966-04-15'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Miss You'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'When the Whip Comes Down'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Just My Imagination (Running Away with Me)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Some Girls'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Lies'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Far Away Eyes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Respectable'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Before They Make Me Run'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Beast of Burden'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Shattered'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1978-06-09'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Love Is Strong'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'You Got Me Rocking'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sparks Will Fly'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'The Worst'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'New Faces'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Moon Is Up'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Out of Tears'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I Go Wild'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Brand New Car'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweethearts Together'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Suck on the Jugular'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Blinded by Rainbows'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Baby Break It Down'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Thru and Thru'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Mean Disposition'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1994-07-18'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Rough Justice'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Let Me Down Slow'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Rain Fall Down'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Streets of Love'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Back of My Hand'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'She Saw Me Coming'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Biggest Mistake'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'This Place Is Empty'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Oh No, Not You Again'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Dangerous Beauty'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Laugh, I Nearly Died'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Sweet Neo Con'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Look What the Cat Dragged In'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Driving Too Fast'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Infamy'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2005-09-06'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Just Your Fool'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Commit a Crime'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Blue and Lonesome'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'All of Your Love'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I Gotta Go'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Everybody Knows About My Good Thing'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Ride Them on Down'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hate to See You Go'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Hoo Doo Blues'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Little Rain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Just Like I Treat You'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I Can't Quit You Baby'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016-12-02'</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'It Won,t Take Long'</t>
   </si>
 </sst>
 </file>
@@ -228,12 +526,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,13 +552,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,33 +883,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43B6D83-BF0F-4BBB-A46C-2CC839BBA098}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="4">
         <v>283</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" t="str">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="str">
         <f>CONCATENATE($K$1,A1,$K$3,B1,$K$3,C1,$K$2)</f>
         <v>insert into song values('Giant Steps', '1960-01-27',283);</v>
       </c>
@@ -606,19 +920,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>345</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H55" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$3,C2,$K$2)</f>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="str">
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$3,C2,$K$2)</f>
         <v>insert into song values('Cousin Mary', '1960-01-27',345);</v>
       </c>
       <c r="K2" t="s">
@@ -626,18 +942,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>141</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" t="str">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Countdown','1960-01-27',141);</v>
       </c>
@@ -646,791 +964,2511 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>356</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" t="str">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Spiral','1960-01-27',356);</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>420</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" t="str">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Syeeda´s Song Flute','1960-01-27',420);</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>261</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" t="str">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Naima','1960-01-27',261);</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>417</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" t="str">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Mr. P.C.','1960-01-27',417);</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>463</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" t="str">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Acknowledgment', '1964-12-09',463);</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>440</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" t="str">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Resolution', '1964-12-09',440);</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>642</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" t="str">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Pursuance', '1964-12-09',642);</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>425</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" t="str">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Psalm', '1964-12-09',425);</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>266</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" t="str">
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Airegin', '1960-01-28',266);</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>323</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="H16" t="str">
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('D-Natural Blues', '1960-01-28',323);</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>284</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="H17" t="str">
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Polka Dots and Moonbeams', '1960-01-28',284);</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>375</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" t="str">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Four on Six', '1960-01-28',375);</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>446</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="H19" t="str">
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('West Coast Blues', '1960-01-28',446);</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>293</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" t="str">
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('In Your Own Sweet Way', '1960-01-28',293);</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>273</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" t="str">
+      <c r="D21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Mr. Walker', '1960-01-28',273);</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>384</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" t="str">
+      <c r="D22" s="4"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Gone With the Wind', '1960-01-28',384);</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>265</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="H25" t="str">
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Marea', '1999-03-13',265);</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>204</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" t="str">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Ya lo dijo Camarón', '1999-03-13',204);</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>167</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" t="str">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Trasegando', '1999-03-13',167);</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>213</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" t="str">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('No quiero ser un poeta', '1999-03-13',213);</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>220</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" t="str">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Despellejo', '1999-03-13',220);</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>282</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" t="str">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Quejíos', '1999-03-13',282);</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>275</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" t="str">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Lija y terciopelo', '1999-03-13',275);</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>307</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" t="str">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Como quiere tu abuelita', '1999-03-13',307);</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>234</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="H34" t="str">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Barniz', '2000-02-06',234);</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>250</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="H35" t="str">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Incandescente', '2000-02-06',250);</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>240</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="H36" t="str">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Amor temporero', '2000-02-06',240);</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>337</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="H37" t="str">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Corazón de mimbre', '2000-02-06',337);</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>242</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="H38" t="str">
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'El perro verde', '2000-02-06',242);</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>220</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="H39" t="str">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Duerme conmigo', '2000-02-06',220);</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>72</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="H40" t="str">
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Canto de tierra seca I', '2000-02-06',72);</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>206</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="H41" t="str">
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Canto de tierra seca II', '2000-02-06',206);</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>221</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="H42" t="str">
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Prisma tristeza', '2000-02-06',221);</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>235</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="H43" t="str">
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Mojama', '2000-02-06',235);</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>221</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="H44" t="str">
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Si viene la pestañi', '2000-02-06',221);</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>224</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="H46" t="str">
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Bienvenido al secadero', '2011-09-27',224);</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>255</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" t="str">
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(La majada', '2011-09-27',255);</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>251</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="H48" t="str">
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Sobran bueyes', '2011-09-27',251);</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>250</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="H49" t="str">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(El día que lluevan pianos', '2011-09-27',250);</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>311</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="H50" t="str">
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Canaleros', '2011-09-27',311);</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>257</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="H51" t="str">
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Ojalá me quieras libre', '2011-09-27',257);</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>223</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="H52" t="str">
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Ángeles del suelo', '2011-09-27',223);</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>220</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="H53" t="str">
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Las últimas habitaciones', '2011-09-27',220);</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>245</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="H54" t="str">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Plomo en los bolsillos', '2011-09-27',245);</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>260</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="H55" t="str">
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Pedimiento', '2011-09-27',260);</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Route 66', '1964-04-19',140);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>137</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'I Just Want to Make Love to You', '1964-04-19',137);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>129</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Honest I Do', '1964-04-19',129);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>153</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Mona (I Need You Baby)', '1964-04-19',153);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>149</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Now I have Got a Witness (Like Uncle Phil and Uncle Gene)', '1964-04-19',149);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>159</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Little by Little', '1964-04-19',159);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>155</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'I am a King Bee', '1964-04-19',155);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>153</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Carol', '1964-04-19',153);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>245</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into song values( 'Tell Me (You are Coming Back)', '1964-04-19',245);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>175</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H129" si="1">CONCATENATE($K$1,A66,$K$3,B66,$K$3,C66,$K$2)</f>
+        <v>insert into song values( 'Can I Get a Witness', '1964-04-19',175);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>121</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'You Can Make It If You Try', '1964-04-19',121);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>190</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Walking the Dog', '1964-04-19',190);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>183</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Around and Around', '1964-10-17',183);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>166</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Confessing the Blues', '1964-10-17',166);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72">
+        <v>155</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Empty Heart', '1964-10-17',155);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>170</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Time Is on My Side', '1964-10-17',170);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>152</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Good Times, Bad Times', '1964-10-17',152);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>207</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'It is All Over Now', '1964-10-17',207);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>123</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( '2120 South Michigan Avenue', '1964-10-17',123);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>168</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Under the Boardwalk', '1964-10-17',168);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>148</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Congratulations', '1964-10-17',148);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79">
+        <v>124</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Grown Up Wrong', '1964-10-17',124);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80">
+        <v>123</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'If You Need Me', '1964-10-17',123);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81">
+        <v>111</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Susie Q', '1964-10-17',111);</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>164</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Mother,s Little Helper', '1966-04-15',164);</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>184</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Stupid Girl', '1966-04-15',184);</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>188</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Lady Jane', '1966-04-15',188);</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86">
+        <v>221</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Under My Thumb', '1966-04-15',221);</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>161</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Doncha Bother Me', '1966-04-15',161);</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>673</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Going Home', '1966-04-15',673);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89">
+        <v>207</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Flight 505', '1966-04-15',207);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>188</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'High and Dry', '1966-04-15',188);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>337</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Out of Time', '1966-04-15',337);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
+        <v>184</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'It is Not Easy', '1966-04-15',184);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93">
+        <v>191</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'I Am Waiting', '1966-04-15',191);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>167</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Take It or Leave It', '1966-04-15',167);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95">
+        <v>189</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Think', '1966-04-15',189);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>152</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'What to Do', '1966-04-15',152);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98">
+        <v>288</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Miss You', '1978-06-09',288);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99">
+        <v>260</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'When the Whip Comes Down', '1978-06-09',260);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100">
+        <v>278</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Just My Imagination (Running Away with Me)', '1978-06-09',278);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101">
+        <v>276</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Some Girls', '1978-06-09',276);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102">
+        <v>191</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Lies', '1978-06-09',191);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103">
+        <v>264</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Far Away Eyes', '1978-06-09',264);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104">
+        <v>186</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Respectable', '1978-06-09',186);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105">
+        <v>205</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Before They Make Me Run', '1978-06-09',205);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106">
+        <v>265</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Beast of Burden', '1978-06-09',265);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107">
+        <v>228</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Shattered', '1978-06-09',228);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109">
+        <v>226</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Love Is Strong', '1994-07-18',226);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110">
+        <v>214</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'You Got Me Rocking', '1994-07-18',214);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111">
+        <v>194</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Sparks Will Fly', '1994-07-18',194);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112">
+        <v>144</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'The Worst', '1994-07-18',144);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113">
+        <v>170</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'New Faces', '1994-07-18',170);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114">
+        <v>221</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Moon Is Up', '1994-07-18',221);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115">
+        <v>325</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Out of Tears', '1994-07-18',325);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116">
+        <v>259</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'I Go Wild', '1994-07-18',259);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>253</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Brand New Car', '1994-07-18',253);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118">
+        <v>286</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Sweethearts Together', '1994-07-18',286);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119">
+        <v>266</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Suck on the Jugular', '1994-07-18',266);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120">
+        <v>273</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Blinded by Rainbows', '1994-07-18',273);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121">
+        <v>247</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Baby Break It Down', '1994-07-18',247);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122">
+        <v>359</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Thru and Thru', '1994-07-18',359);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123">
+        <v>249</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Mean Disposition', '1994-07-18',249);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125">
+        <v>191</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Rough Justice', '2005-09-06',191);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126">
+        <v>256</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Let Me Down Slow', '2005-09-06',256);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127">
+        <v>234</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'It Won,t Take Long', '2005-09-06',234);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128">
+        <v>294</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Rain Fall Down', '2005-09-06',294);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129">
+        <v>310</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into song values( 'Streets of Love', '2005-09-06',310);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130">
+        <v>212</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="H130" t="str">
+        <f t="shared" ref="H130:H153" si="2">CONCATENATE($K$1,A130,$K$3,B130,$K$3,C130,$K$2)</f>
+        <v>insert into song values( 'Back of My Hand', '2005-09-06',212);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131">
+        <v>192</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="H131" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'She Saw Me Coming', '2005-09-06',192);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132">
+        <v>246</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="H132" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Biggest Mistake', '2005-09-06',246);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133">
+        <v>192</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="H133" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'This Place Is Empty', '2005-09-06',192);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134">
+        <v>226</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="H134" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Oh No, Not You Again', '2005-09-06',226);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135">
+        <v>228</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Dangerous Beauty', '2005-09-06',228);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136">
+        <v>294</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="H136" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Laugh, I Nearly Died', '2005-09-06',294);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137">
+        <v>273</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Sweet Neo Con', '2005-09-06',273);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138">
+        <v>237</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="H138" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Look What the Cat Dragged In', '2005-09-06',237);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139">
+        <v>236</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Driving Too Fast', '2005-09-06',236);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>227</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="H140" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Infamy', '2005-09-06',227);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values(,,);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142">
+        <v>136</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Just Your Fool', '2016-12-02',136);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143">
+        <v>218</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Commit a Crime', '2016-12-02',218);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144">
+        <v>217</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="H144" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Blue and Lonesome', '2016-12-02',217);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145">
+        <v>286</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="H145" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'All of Your Love', '2016-12-02',286);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146">
+        <v>206</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="H146" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'I Gotta Go', '2016-12-02',206);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147">
+        <v>270</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="H147" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Everybody Knows About My Good Thing', '2016-12-02',270);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148">
+        <v>168</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="H148" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Ride Them on Down', '2016-12-02',168);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149">
+        <v>200</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="H149" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Hate to See You Go', '2016-12-02',200);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150">
+        <v>156</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="H150" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Hoo Doo Blues', '2016-12-02',156);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151">
+        <v>212</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Little Rain', '2016-12-02',212);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>204</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'Just Like I Treat You', '2016-12-02',204);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153">
+        <v>313</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into song values( 'I Can't Quit You Baby', '2016-12-02',313);</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E1:F12"/>
     <mergeCell ref="E15:F22"/>
     <mergeCell ref="E25:F55"/>
+    <mergeCell ref="E57:F153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos Excel/songs.xlsx
+++ b/Archivos Excel/songs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC031AF8-D582-426C-AEBD-CDCBE849554E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114F75D-67B1-43F4-941F-F1671C0E6ED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{067E2ABE-601A-40B7-B723-C4A6564EA429}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -556,17 +555,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,11 +882,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43B6D83-BF0F-4BBB-A46C-2CC839BBA098}">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -896,22 +893,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>283</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="str">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="str">
         <f>CONCATENATE($K$1,A1,$K$3,B1,$K$3,C1,$K$2)</f>
         <v>insert into song values('Giant Steps', '1960-01-27',283);</v>
       </c>
@@ -920,20 +917,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>345</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="str">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="str">
         <f t="shared" ref="H2:H65" si="0">CONCATENATE($K$1,A2,$K$3,B2,$K$3,C2,$K$2)</f>
         <v>insert into song values('Cousin Mary', '1960-01-27',345);</v>
       </c>
@@ -942,20 +939,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>141</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="str">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Countdown','1960-01-27',141);</v>
       </c>
@@ -964,912 +961,936 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>356</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="str">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Spiral','1960-01-27',356);</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>420</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="str">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Syeeda´s Song Flute','1960-01-27',420);</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>261</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="str">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Naima','1960-01-27',261);</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>417</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="str">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Mr. P.C.','1960-01-27',417);</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3">
+        <f>COUNT(C1:C7)</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>463</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="str">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Acknowledgment', '1964-12-09',463);</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>440</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="str">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Resolution', '1964-12-09',440);</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>642</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="str">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Pursuance', '1964-12-09',642);</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>425</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="str">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Psalm', '1964-12-09',425);</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="3">
+        <f>COUNT(C9:C12)</f>
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>266</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="str">
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Airegin', '1960-01-28',266);</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>323</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="str">
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('D-Natural Blues', '1960-01-28',323);</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>284</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="str">
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Polka Dots and Moonbeams', '1960-01-28',284);</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>375</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="str">
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Four on Six', '1960-01-28',375);</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>446</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="str">
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('West Coast Blues', '1960-01-28',446);</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>293</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="str">
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('In Your Own Sweet Way', '1960-01-28',293);</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>273</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="str">
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Mr. Walker', '1960-01-28',273);</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>384</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="str">
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Gone With the Wind', '1960-01-28',384);</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>COUNT(C15:C22)</f>
+        <v>8</v>
+      </c>
+    </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>265</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="str">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Marea', '1999-03-13',265);</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>204</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="str">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Ya lo dijo Camarón', '1999-03-13',204);</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>167</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="str">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Trasegando', '1999-03-13',167);</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>213</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="str">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('No quiero ser un poeta', '1999-03-13',213);</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>220</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="str">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Despellejo', '1999-03-13',220);</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>282</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="str">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Quejíos', '1999-03-13',282);</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>275</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="str">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Lija y terciopelo', '1999-03-13',275);</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>307</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="str">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values('Como quiere tu abuelita', '1999-03-13',307);</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="3">
+        <f>COUNT(C25:C32)</f>
+        <v>8</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>234</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="str">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Barniz', '2000-02-06',234);</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>250</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="str">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Incandescente', '2000-02-06',250);</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>240</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="str">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Amor temporero', '2000-02-06',240);</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>337</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="str">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Corazón de mimbre', '2000-02-06',337);</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>242</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="str">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'El perro verde', '2000-02-06',242);</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>220</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="str">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Duerme conmigo', '2000-02-06',220);</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>72</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="str">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Canto de tierra seca I', '2000-02-06',72);</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>206</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="str">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Canto de tierra seca II', '2000-02-06',206);</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>221</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="str">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Prisma tristeza', '2000-02-06',221);</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>235</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="str">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Mojama', '2000-02-06',235);</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>221</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="str">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Si viene la pestañi', '2000-02-06',221);</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="3">
+        <f>COUNT(C34:C44)</f>
+        <v>11</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>224</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="str">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Bienvenido al secadero', '2011-09-27',224);</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>255</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="str">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(La majada', '2011-09-27',255);</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>251</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="str">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Sobran bueyes', '2011-09-27',251);</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>250</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="str">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(El día que lluevan pianos', '2011-09-27',250);</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>311</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="str">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Canaleros', '2011-09-27',311);</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>257</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="str">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Ojalá me quieras libre', '2011-09-27',257);</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>223</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="str">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Ángeles del suelo', '2011-09-27',223);</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>220</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="str">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Las últimas habitaciones', '2011-09-27',220);</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>245</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="str">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Plomo en los bolsillos', '2011-09-27',245);</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>260</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="str">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values(Pedimiento', '2011-09-27',260);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>COUNT(C46:C55)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,10 +1903,10 @@
       <c r="C57">
         <v>140</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="7"/>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Route 66', '1964-04-19',140);</v>
@@ -1901,8 +1922,8 @@
       <c r="C58">
         <v>137</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'I Just Want to Make Love to You', '1964-04-19',137);</v>
@@ -1918,8 +1939,8 @@
       <c r="C59">
         <v>129</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Honest I Do', '1964-04-19',129);</v>
@@ -1935,8 +1956,8 @@
       <c r="C60">
         <v>153</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Mona (I Need You Baby)', '1964-04-19',153);</v>
@@ -1952,8 +1973,8 @@
       <c r="C61">
         <v>149</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Now I have Got a Witness (Like Uncle Phil and Uncle Gene)', '1964-04-19',149);</v>
@@ -1969,8 +1990,8 @@
       <c r="C62">
         <v>159</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Little by Little', '1964-04-19',159);</v>
@@ -1986,8 +2007,8 @@
       <c r="C63">
         <v>155</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'I am a King Bee', '1964-04-19',155);</v>
@@ -2003,8 +2024,8 @@
       <c r="C64">
         <v>153</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Carol', '1964-04-19',153);</v>
@@ -2020,8 +2041,8 @@
       <c r="C65">
         <v>245</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v>insert into song values( 'Tell Me (You are Coming Back)', '1964-04-19',245);</v>
@@ -2037,8 +2058,8 @@
       <c r="C66">
         <v>175</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H129" si="1">CONCATENATE($K$1,A66,$K$3,B66,$K$3,C66,$K$2)</f>
         <v>insert into song values( 'Can I Get a Witness', '1964-04-19',175);</v>
@@ -2054,8 +2075,8 @@
       <c r="C67">
         <v>121</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
       <c r="H67" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'You Can Make It If You Try', '1964-04-19',121);</v>
@@ -2071,16 +2092,20 @@
       <c r="C68">
         <v>190</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Walking the Dog', '1964-04-19',190);</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="A69">
+        <f>COUNT(C57:C68)</f>
+        <v>12</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2092,8 +2117,8 @@
       <c r="C70">
         <v>183</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Around and Around', '1964-10-17',183);</v>
@@ -2109,8 +2134,8 @@
       <c r="C71">
         <v>166</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Confessing the Blues', '1964-10-17',166);</v>
@@ -2126,8 +2151,8 @@
       <c r="C72">
         <v>155</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Empty Heart', '1964-10-17',155);</v>
@@ -2143,8 +2168,8 @@
       <c r="C73">
         <v>170</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Time Is on My Side', '1964-10-17',170);</v>
@@ -2160,8 +2185,8 @@
       <c r="C74">
         <v>152</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Good Times, Bad Times', '1964-10-17',152);</v>
@@ -2177,8 +2202,8 @@
       <c r="C75">
         <v>207</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'It is All Over Now', '1964-10-17',207);</v>
@@ -2194,8 +2219,8 @@
       <c r="C76">
         <v>123</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( '2120 South Michigan Avenue', '1964-10-17',123);</v>
@@ -2211,8 +2236,8 @@
       <c r="C77">
         <v>168</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Under the Boardwalk', '1964-10-17',168);</v>
@@ -2228,8 +2253,8 @@
       <c r="C78">
         <v>148</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Congratulations', '1964-10-17',148);</v>
@@ -2245,8 +2270,8 @@
       <c r="C79">
         <v>124</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Grown Up Wrong', '1964-10-17',124);</v>
@@ -2262,8 +2287,8 @@
       <c r="C80">
         <v>123</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'If You Need Me', '1964-10-17',123);</v>
@@ -2279,20 +2304,24 @@
       <c r="C81">
         <v>111</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Susie Q', '1964-10-17',111);</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="A82">
+        <f>COUNT(C70:C81)</f>
+        <v>12</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2304,14 +2333,14 @@
       <c r="C83">
         <v>164</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Mother,s Little Helper', '1966-04-15',164);</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -2323,14 +2352,14 @@
       <c r="C84">
         <v>184</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Stupid Girl', '1966-04-15',184);</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2342,14 +2371,14 @@
       <c r="C85">
         <v>188</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Lady Jane', '1966-04-15',188);</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2361,14 +2390,14 @@
       <c r="C86">
         <v>221</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Under My Thumb', '1966-04-15',221);</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -2380,14 +2409,14 @@
       <c r="C87">
         <v>161</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
       <c r="H87" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Doncha Bother Me', '1966-04-15',161);</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -2399,8 +2428,8 @@
       <c r="C88">
         <v>673</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Going Home', '1966-04-15',673);</v>
@@ -2416,8 +2445,8 @@
       <c r="C89">
         <v>207</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
       <c r="H89" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Flight 505', '1966-04-15',207);</v>
@@ -2433,8 +2462,8 @@
       <c r="C90">
         <v>188</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
       <c r="H90" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'High and Dry', '1966-04-15',188);</v>
@@ -2450,8 +2479,8 @@
       <c r="C91">
         <v>337</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
       <c r="H91" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Out of Time', '1966-04-15',337);</v>
@@ -2467,8 +2496,8 @@
       <c r="C92">
         <v>184</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
       <c r="H92" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'It is Not Easy', '1966-04-15',184);</v>
@@ -2484,8 +2513,8 @@
       <c r="C93">
         <v>191</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
       <c r="H93" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'I Am Waiting', '1966-04-15',191);</v>
@@ -2501,8 +2530,8 @@
       <c r="C94">
         <v>167</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
       <c r="H94" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Take It or Leave It', '1966-04-15',167);</v>
@@ -2518,8 +2547,8 @@
       <c r="C95">
         <v>189</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
       <c r="H95" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Think', '1966-04-15',189);</v>
@@ -2535,16 +2564,20 @@
       <c r="C96">
         <v>152</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
       <c r="H96" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'What to Do', '1966-04-15',152);</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="A97">
+        <f>COUNT(C83:C96)</f>
+        <v>14</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2556,8 +2589,8 @@
       <c r="C98">
         <v>288</v>
       </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
       <c r="H98" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Miss You', '1978-06-09',288);</v>
@@ -2573,8 +2606,8 @@
       <c r="C99">
         <v>260</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
       <c r="H99" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'When the Whip Comes Down', '1978-06-09',260);</v>
@@ -2590,8 +2623,8 @@
       <c r="C100">
         <v>278</v>
       </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
       <c r="H100" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Just My Imagination (Running Away with Me)', '1978-06-09',278);</v>
@@ -2607,8 +2640,8 @@
       <c r="C101">
         <v>276</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
       <c r="H101" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Some Girls', '1978-06-09',276);</v>
@@ -2624,8 +2657,8 @@
       <c r="C102">
         <v>191</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
       <c r="H102" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Lies', '1978-06-09',191);</v>
@@ -2641,8 +2674,8 @@
       <c r="C103">
         <v>264</v>
       </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
       <c r="H103" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Far Away Eyes', '1978-06-09',264);</v>
@@ -2658,8 +2691,8 @@
       <c r="C104">
         <v>186</v>
       </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
       <c r="H104" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Respectable', '1978-06-09',186);</v>
@@ -2675,8 +2708,8 @@
       <c r="C105">
         <v>205</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
       <c r="H105" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Before They Make Me Run', '1978-06-09',205);</v>
@@ -2692,8 +2725,8 @@
       <c r="C106">
         <v>265</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
       <c r="H106" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Beast of Burden', '1978-06-09',265);</v>
@@ -2709,16 +2742,20 @@
       <c r="C107">
         <v>228</v>
       </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
       <c r="H107" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Shattered', '1978-06-09',228);</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="A108">
+        <f>COUNT(C98:C107)</f>
+        <v>10</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2730,8 +2767,8 @@
       <c r="C109">
         <v>226</v>
       </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
       <c r="H109" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Love Is Strong', '1994-07-18',226);</v>
@@ -2747,8 +2784,8 @@
       <c r="C110">
         <v>214</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
       <c r="H110" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'You Got Me Rocking', '1994-07-18',214);</v>
@@ -2764,8 +2801,8 @@
       <c r="C111">
         <v>194</v>
       </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
       <c r="H111" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Sparks Will Fly', '1994-07-18',194);</v>
@@ -2781,8 +2818,8 @@
       <c r="C112">
         <v>144</v>
       </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
       <c r="H112" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'The Worst', '1994-07-18',144);</v>
@@ -2798,8 +2835,8 @@
       <c r="C113">
         <v>170</v>
       </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
       <c r="H113" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'New Faces', '1994-07-18',170);</v>
@@ -2815,8 +2852,8 @@
       <c r="C114">
         <v>221</v>
       </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
       <c r="H114" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Moon Is Up', '1994-07-18',221);</v>
@@ -2832,8 +2869,8 @@
       <c r="C115">
         <v>325</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
       <c r="H115" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Out of Tears', '1994-07-18',325);</v>
@@ -2849,8 +2886,8 @@
       <c r="C116">
         <v>259</v>
       </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
       <c r="H116" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'I Go Wild', '1994-07-18',259);</v>
@@ -2866,8 +2903,8 @@
       <c r="C117">
         <v>253</v>
       </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
       <c r="H117" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Brand New Car', '1994-07-18',253);</v>
@@ -2883,8 +2920,8 @@
       <c r="C118">
         <v>286</v>
       </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
       <c r="H118" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Sweethearts Together', '1994-07-18',286);</v>
@@ -2900,8 +2937,8 @@
       <c r="C119">
         <v>266</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
       <c r="H119" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Suck on the Jugular', '1994-07-18',266);</v>
@@ -2917,8 +2954,8 @@
       <c r="C120">
         <v>273</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
       <c r="H120" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Blinded by Rainbows', '1994-07-18',273);</v>
@@ -2934,8 +2971,8 @@
       <c r="C121">
         <v>247</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
       <c r="H121" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Baby Break It Down', '1994-07-18',247);</v>
@@ -2951,8 +2988,8 @@
       <c r="C122">
         <v>359</v>
       </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
       <c r="H122" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Thru and Thru', '1994-07-18',359);</v>
@@ -2968,16 +3005,20 @@
       <c r="C123">
         <v>249</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
       <c r="H123" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Mean Disposition', '1994-07-18',249);</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="A124">
+        <f>COUNT(C109:C123)</f>
+        <v>15</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -2989,8 +3030,8 @@
       <c r="C125">
         <v>191</v>
       </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
       <c r="H125" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Rough Justice', '2005-09-06',191);</v>
@@ -3006,8 +3047,8 @@
       <c r="C126">
         <v>256</v>
       </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Let Me Down Slow', '2005-09-06',256);</v>
@@ -3023,8 +3064,8 @@
       <c r="C127">
         <v>234</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'It Won,t Take Long', '2005-09-06',234);</v>
@@ -3040,8 +3081,8 @@
       <c r="C128">
         <v>294</v>
       </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Rain Fall Down', '2005-09-06',294);</v>
@@ -3057,8 +3098,8 @@
       <c r="C129">
         <v>310</v>
       </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
         <v>insert into song values( 'Streets of Love', '2005-09-06',310);</v>
@@ -3074,8 +3115,8 @@
       <c r="C130">
         <v>212</v>
       </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
       <c r="H130" t="str">
         <f t="shared" ref="H130:H153" si="2">CONCATENATE($K$1,A130,$K$3,B130,$K$3,C130,$K$2)</f>
         <v>insert into song values( 'Back of My Hand', '2005-09-06',212);</v>
@@ -3091,8 +3132,8 @@
       <c r="C131">
         <v>192</v>
       </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
       <c r="H131" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'She Saw Me Coming', '2005-09-06',192);</v>
@@ -3108,8 +3149,8 @@
       <c r="C132">
         <v>246</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
       <c r="H132" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Biggest Mistake', '2005-09-06',246);</v>
@@ -3125,8 +3166,8 @@
       <c r="C133">
         <v>192</v>
       </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'This Place Is Empty', '2005-09-06',192);</v>
@@ -3142,8 +3183,8 @@
       <c r="C134">
         <v>226</v>
       </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Oh No, Not You Again', '2005-09-06',226);</v>
@@ -3159,8 +3200,8 @@
       <c r="C135">
         <v>228</v>
       </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Dangerous Beauty', '2005-09-06',228);</v>
@@ -3176,8 +3217,8 @@
       <c r="C136">
         <v>294</v>
       </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Laugh, I Nearly Died', '2005-09-06',294);</v>
@@ -3193,8 +3234,8 @@
       <c r="C137">
         <v>273</v>
       </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Sweet Neo Con', '2005-09-06',273);</v>
@@ -3210,8 +3251,8 @@
       <c r="C138">
         <v>237</v>
       </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Look What the Cat Dragged In', '2005-09-06',237);</v>
@@ -3227,8 +3268,8 @@
       <c r="C139">
         <v>236</v>
       </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
       <c r="H139" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Driving Too Fast', '2005-09-06',236);</v>
@@ -3244,19 +3285,23 @@
       <c r="C140">
         <v>227</v>
       </c>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
       <c r="H140" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Infamy', '2005-09-06',227);</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="A141">
+        <f>COUNT(C125:C140)</f>
+        <v>16</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
       <c r="H141" t="str">
         <f t="shared" si="2"/>
-        <v>insert into song values(,,);</v>
+        <v>insert into song values(16,,);</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -3269,8 +3314,8 @@
       <c r="C142">
         <v>136</v>
       </c>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
       <c r="H142" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Just Your Fool', '2016-12-02',136);</v>
@@ -3286,8 +3331,8 @@
       <c r="C143">
         <v>218</v>
       </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
       <c r="H143" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Commit a Crime', '2016-12-02',218);</v>
@@ -3303,8 +3348,8 @@
       <c r="C144">
         <v>217</v>
       </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
       <c r="H144" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Blue and Lonesome', '2016-12-02',217);</v>
@@ -3320,8 +3365,8 @@
       <c r="C145">
         <v>286</v>
       </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
       <c r="H145" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'All of Your Love', '2016-12-02',286);</v>
@@ -3337,8 +3382,8 @@
       <c r="C146">
         <v>206</v>
       </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
       <c r="H146" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'I Gotta Go', '2016-12-02',206);</v>
@@ -3354,8 +3399,8 @@
       <c r="C147">
         <v>270</v>
       </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
       <c r="H147" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Everybody Knows About My Good Thing', '2016-12-02',270);</v>
@@ -3371,8 +3416,8 @@
       <c r="C148">
         <v>168</v>
       </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
       <c r="H148" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Ride Them on Down', '2016-12-02',168);</v>
@@ -3388,8 +3433,8 @@
       <c r="C149">
         <v>200</v>
       </c>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
       <c r="H149" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Hate to See You Go', '2016-12-02',200);</v>
@@ -3405,8 +3450,8 @@
       <c r="C150">
         <v>156</v>
       </c>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
       <c r="H150" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Hoo Doo Blues', '2016-12-02',156);</v>
@@ -3422,8 +3467,8 @@
       <c r="C151">
         <v>212</v>
       </c>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
       <c r="H151" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Little Rain', '2016-12-02',212);</v>
@@ -3439,8 +3484,8 @@
       <c r="C152">
         <v>204</v>
       </c>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
       <c r="H152" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'Just Like I Treat You', '2016-12-02',204);</v>
@@ -3456,11 +3501,17 @@
       <c r="C153">
         <v>313</v>
       </c>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
       <c r="H153" t="str">
         <f t="shared" si="2"/>
         <v>insert into song values( 'I Can't Quit You Baby', '2016-12-02',313);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>COUNT(C142:C153)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
